--- a/excel_demo/regbank_demo.xlsx
+++ b/excel_demo/regbank_demo.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8809E93D-26A7-4C66-B4EE-C3DDF2CEE034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AEE650-4A70-4E0B-9E2E-BD238EC5D4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="258" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="REGBANK" sheetId="1" r:id="rId1"/>
+    <sheet name="selection" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>Regbank</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,14 +31,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1KB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OffsetAddress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bits</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FieldName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,9 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x00</t>
-  </si>
-  <si>
     <t>FieldType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,10 +138,6 @@
     <t>fied3, hardware read only.</t>
   </si>
   <si>
-    <t>internal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1:1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>external</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fied0, external hardware read only.</t>
   </si>
   <si>
@@ -188,10 +162,6 @@
     <t>fied3, external hardware read only.</t>
   </si>
   <si>
-    <t>Base Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DefaultValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,6 +201,38 @@
   </si>
   <si>
     <t>reg1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size (in KB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>External</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegBus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,15 +265,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -279,23 +293,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,321 +676,488 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18.46484375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.73046875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.73046875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.86328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.06640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="36.86328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.06640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.9296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.73046875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.86328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" style="5" hidden="1"/>
+    <col min="12" max="16384" width="9.06640625" style="5" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="11">
+        <v>8</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="11">
+        <v>16</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C13" s="1" t="s">
+      <c r="G18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C20" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>43</v>
+      <c r="J20" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="6">
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2F7FACAA-3A67-4C5E-AC4B-C4D1FB66F8E1}">
+          <x14:formula1>
+            <xm:f>selection!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3:C3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{82887A3A-E9C6-4F39-9282-0380FE387A29}">
+          <x14:formula1>
+            <xm:f>selection!$B$1:$B$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9254EA06-8822-4DB7-87E2-2D9688CD86AD}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>